--- a/my_submit_1.xlsx
+++ b/my_submit_1.xlsx
@@ -110,7 +110,7 @@
     <t>2024-10-04 00:00:00</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Base Techniques</t>
   </si>
   <si>
     <t>先前的multi-agent系统的局限性，系统化平台化程度不足（缺乏第三方集成支持，无法分布式，通信协议和状态转换依赖于硬编码）</t>
@@ -570,7 +570,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,13 +589,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1075,148 +1068,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,8 +1570,8 @@
   <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/my_submit_1.xlsx
+++ b/my_submit_1.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,7 @@
     <col width="15" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,6 +597,11 @@
           <t>conflict marker</t>
         </is>
       </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>invalid fields</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -700,6 +706,7 @@
       <c r="W2" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -798,6 +805,7 @@
       <c r="W3" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -893,6 +901,7 @@
       <c r="W4" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -997,6 +1006,7 @@
       <c r="W5" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1094,6 +1104,7 @@
       <c r="W6" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -1191,6 +1202,7 @@
       <c r="W7" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -1292,6 +1304,7 @@
       <c r="W8" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -1388,6 +1401,7 @@
       <c r="W9" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -1489,6 +1503,7 @@
       <c r="W10" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="X10" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
